--- a/Document/IntegrationTest/LowHope Integration Test/Intergratopn_Report.xlsx
+++ b/Document/IntegrationTest/LowHope Integration Test/Intergratopn_Report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
   <si>
     <t>Project name</t>
   </si>
@@ -395,57 +395,57 @@
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -737,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -753,136 +753,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="6" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="6" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="6" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="4">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20">
         <v>43073</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="16"/>
     </row>
     <row r="7" spans="1:11" ht="26.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="19"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="10">
+      <c r="A8" s="5">
         <v>1</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="12">
-        <v>117</v>
-      </c>
-      <c r="D8" s="12">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
+      <c r="C8" s="7">
+        <v>119</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
         <v>119</v>
       </c>
       <c r="H8" s="21" t="s">
@@ -890,577 +890,469 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="10">
+      <c r="A9" s="5">
         <v>2</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="7">
         <v>37</v>
       </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16">
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
         <v>37</v>
       </c>
       <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="10">
+      <c r="A10" s="5">
         <v>3</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="7">
         <v>18</v>
       </c>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
         <v>18</v>
       </c>
       <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="10">
+      <c r="A11" s="5">
         <v>4</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="7">
         <v>18</v>
       </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16">
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
         <v>18</v>
       </c>
       <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="16"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="10">
         <f>SUM(C6:C12)</f>
-        <v>190</v>
-      </c>
-      <c r="D13" s="15">
+        <v>192</v>
+      </c>
+      <c r="D13" s="10">
         <f>SUM(D6:D12)</f>
-        <v>2</v>
-      </c>
-      <c r="E13" s="15">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
         <f>SUM(E6:E12)</f>
         <v>0</v>
       </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="17">
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
         <f>SUM(G8:G11)</f>
         <v>192</v>
       </c>
       <c r="H13" s="23"/>
     </row>
     <row r="15" spans="1:11" ht="26.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="10">
+      <c r="A16" s="5">
         <v>1</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="12">
-        <v>84</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="C16" s="7">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
         <v>2</v>
       </c>
-      <c r="E16" s="12">
-        <v>0</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0</v>
-      </c>
-      <c r="G16" s="16">
-        <v>86</v>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <v>87</v>
       </c>
       <c r="H16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="10">
+      <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="12">
-        <v>78</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
-      <c r="F17" s="12">
-        <v>0</v>
-      </c>
-      <c r="G17" s="16">
-        <v>78</v>
+      <c r="C17" s="7">
+        <v>79</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>79</v>
       </c>
       <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="16"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="16"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="22"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="16"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="22"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="10">
         <f>SUM(C14:C20)</f>
-        <v>162</v>
-      </c>
-      <c r="D21" s="15">
+        <v>164</v>
+      </c>
+      <c r="D21" s="10">
         <f>SUM(D14:D20)</f>
         <v>2</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="10">
         <f>SUM(E14:E20)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="15">
-        <v>0</v>
-      </c>
-      <c r="G21" s="17">
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12">
         <f>SUM(G16:G19)</f>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H21" s="23"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="6" t="s">
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="1" t="s">
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="1"/>
+      <c r="J24" s="17"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="6" t="s">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="1" t="s">
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="1"/>
+      <c r="J25" s="17"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="6" t="s">
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="4">
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20">
         <v>43073</v>
       </c>
-      <c r="J26" s="4"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="29" spans="1:10" ht="26.25">
-      <c r="A29" s="7" t="s">
+      <c r="C27" s="16"/>
+    </row>
+    <row r="30" spans="1:10" ht="26.25">
+      <c r="A30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D30" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G30" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H30" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="19"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="10">
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="5">
         <v>1</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="12">
-        <v>119</v>
-      </c>
-      <c r="D30" s="12">
-        <v>0</v>
-      </c>
-      <c r="E30" s="12">
-        <v>0</v>
-      </c>
-      <c r="F30" s="12">
-        <v>0</v>
-      </c>
-      <c r="G30" s="16">
-        <v>119</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="22"/>
+      <c r="B31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="7">
+        <v>87</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <v>87</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="16"/>
+      <c r="A32" s="5">
+        <v>2</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="7">
+        <v>79</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <v>79</v>
+      </c>
       <c r="H32" s="22"/>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="16"/>
+    <row r="33" spans="1:8">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="11"/>
       <c r="H33" s="22"/>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="16"/>
+    <row r="34" spans="1:8">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="11"/>
       <c r="H34" s="22"/>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14" t="s">
+    <row r="35" spans="1:8">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="22"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="15">
-        <f>SUM(C28:C34)</f>
-        <v>119</v>
-      </c>
-      <c r="D35" s="15">
-        <f>SUM(D28:D34)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="15">
-        <f>SUM(E28:E34)</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="15">
-        <v>0</v>
-      </c>
-      <c r="G35" s="17">
-        <f>SUM(G30:G33)</f>
-        <v>119</v>
-      </c>
-      <c r="H35" s="23"/>
-    </row>
-    <row r="37" spans="1:10" ht="26.25">
-      <c r="A37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="10">
-        <v>1</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="12">
-        <v>86</v>
-      </c>
-      <c r="D38" s="12">
-        <v>0</v>
-      </c>
-      <c r="E38" s="12">
-        <v>0</v>
-      </c>
-      <c r="F38" s="12">
-        <v>0</v>
-      </c>
-      <c r="G38" s="16">
-        <v>86</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="22"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="22"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="22"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="15">
-        <f>SUM(C36:C42)</f>
-        <v>86</v>
-      </c>
-      <c r="D43" s="15">
-        <f>SUM(D36:D42)</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="15">
-        <f>SUM(E36:E42)</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="15">
-        <v>0</v>
-      </c>
-      <c r="G43" s="17">
-        <f>SUM(G38:G41)</f>
-        <v>86</v>
-      </c>
-      <c r="H43" s="23"/>
+      <c r="C36" s="10">
+        <f>SUM(C29:C35)</f>
+        <v>166</v>
+      </c>
+      <c r="D36" s="10">
+        <f>SUM(D29:D35)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="10">
+        <f>SUM(E29:E35)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0</v>
+      </c>
+      <c r="G36" s="12">
+        <f>SUM(G31:G34)</f>
+        <v>166</v>
+      </c>
+      <c r="H36" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="28">
+    <mergeCell ref="H31:H36"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="H30:H35"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="H38:H43"/>
-    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="H8:H13"/>
-    <mergeCell ref="H16:H21"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:J24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
@@ -1474,6 +1366,8 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="H16:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
